--- a/dataTest/Data_testChangePass.xlsx
+++ b/dataTest/Data_testChangePass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E1698-C772-4F8B-854C-F07082846E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B070ABF1-F692-464E-BE29-D1EDB95D8908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Mật khẩu bạn nhập không trùng nhau !</t>
   </si>
   <si>
-    <t>Mật khẩu bạn chưa thay đổi</t>
-  </si>
-  <si>
     <t>cong2002</t>
   </si>
   <si>
@@ -61,6 +58,36 @@
   </si>
   <si>
     <t>cong2202</t>
+  </si>
+  <si>
+    <t>anhdung2107</t>
+  </si>
+  <si>
+    <t>anhdung210702</t>
+  </si>
+  <si>
+    <t>011605</t>
+  </si>
+  <si>
+    <t>thanh123</t>
+  </si>
+  <si>
+    <t>thanh12</t>
+  </si>
+  <si>
+    <t>05022002</t>
+  </si>
+  <si>
+    <t>lecong123</t>
+  </si>
+  <si>
+    <t>lecong1</t>
+  </si>
+  <si>
+    <t>thuc123</t>
+  </si>
+  <si>
+    <t>thuc123123</t>
   </si>
 </sst>
 </file>
@@ -131,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -143,6 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A3:F4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,13 +497,13 @@
         <v>20010886</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -483,69 +511,194 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>20010939</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>19010029</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20010891</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20010927</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13082002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
+      <c r="B7" s="1">
+        <v>20010939</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19010029</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20010886</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20010927</v>
+      </c>
+      <c r="C10" s="7">
+        <v>13082002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20010891</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTest/Data_testChangePass.xlsx
+++ b/dataTest/Data_testChangePass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B070ABF1-F692-464E-BE29-D1EDB95D8908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE7D18-0E9D-4820-B5DA-07E73CE7E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -66,18 +66,12 @@
     <t>anhdung210702</t>
   </si>
   <si>
-    <t>011605</t>
-  </si>
-  <si>
     <t>thanh123</t>
   </si>
   <si>
     <t>thanh12</t>
   </si>
   <si>
-    <t>05022002</t>
-  </si>
-  <si>
     <t>lecong123</t>
   </si>
   <si>
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>thuc123123</t>
+  </si>
+  <si>
+    <t>thanh1</t>
   </si>
 </sst>
 </file>
@@ -117,7 +114,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +460,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +496,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -510,123 +516,127 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>20010939</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>19010029</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>20010891</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>20010927</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
         <v>13082002</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>20010939</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>19010029</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -646,7 +656,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -656,17 +666,17 @@
         <v>13082002</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="4">
